--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H2">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N2">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O2">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P2">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q2">
-        <v>0.05229440285555555</v>
+        <v>0.005073795575777778</v>
       </c>
       <c r="R2">
-        <v>0.4706496256999999</v>
+        <v>0.045664160182</v>
       </c>
       <c r="S2">
-        <v>0.002912608389125099</v>
+        <v>0.0003320369093923842</v>
       </c>
       <c r="T2">
-        <v>0.002912608389125099</v>
+        <v>0.0003320369093923842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H3">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O3">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P3">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q3">
-        <v>0.1108933628111111</v>
+        <v>0.1512141010798889</v>
       </c>
       <c r="R3">
-        <v>0.9980402653000001</v>
+        <v>1.360926909719</v>
       </c>
       <c r="S3">
-        <v>0.006176357720616414</v>
+        <v>0.009895681059522635</v>
       </c>
       <c r="T3">
-        <v>0.006176357720616412</v>
+        <v>0.009895681059522635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H4">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.603287</v>
       </c>
       <c r="O4">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P4">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q4">
-        <v>0.1516010762333334</v>
+        <v>0.2067231066336667</v>
       </c>
       <c r="R4">
-        <v>1.3644096861</v>
+        <v>1.860507959703</v>
       </c>
       <c r="S4">
-        <v>0.008443629572695109</v>
+        <v>0.01352827491795685</v>
       </c>
       <c r="T4">
-        <v>0.008443629572695109</v>
+        <v>0.01352827491795685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.13889</v>
       </c>
       <c r="I5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N5">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O5">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P5">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q5">
-        <v>0.5937943416566666</v>
+        <v>0.04225003504666666</v>
       </c>
       <c r="R5">
-        <v>5.344149074909999</v>
+        <v>0.38025031542</v>
       </c>
       <c r="S5">
-        <v>0.03307218911556016</v>
+        <v>0.002764906636283752</v>
       </c>
       <c r="T5">
-        <v>0.03307218911556016</v>
+        <v>0.002764906636283752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.13889</v>
       </c>
       <c r="I6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O6">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P6">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q6">
         <v>1.259175892043333</v>
@@ -818,10 +818,10 @@
         <v>11.33258302839</v>
       </c>
       <c r="S6">
-        <v>0.07013152586672808</v>
+        <v>0.08240238798177754</v>
       </c>
       <c r="T6">
-        <v>0.07013152586672808</v>
+        <v>0.08240238798177754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.13889</v>
       </c>
       <c r="I7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>13.603287</v>
       </c>
       <c r="O7">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P7">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q7">
         <v>1.72140528127</v>
@@ -880,10 +880,10 @@
         <v>15.49264753143</v>
       </c>
       <c r="S7">
-        <v>0.09587602476616881</v>
+        <v>0.1126513831446591</v>
       </c>
       <c r="T7">
-        <v>0.09587602476616883</v>
+        <v>0.1126513831446591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N8">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O8">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P8">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q8">
-        <v>2.336607246586333</v>
+        <v>0.1662557743193333</v>
       </c>
       <c r="R8">
-        <v>21.029465219277</v>
+        <v>1.496301968874</v>
       </c>
       <c r="S8">
-        <v>0.1301405408012007</v>
+        <v>0.0108800310633656</v>
       </c>
       <c r="T8">
-        <v>0.1301405408012007</v>
+        <v>0.0108800310633656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O9">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P9">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q9">
         <v>4.954913355803667</v>
@@ -1004,10 +1004,10 @@
         <v>44.59422020223301</v>
       </c>
       <c r="S9">
-        <v>0.2759706855696238</v>
+        <v>0.3242570758708379</v>
       </c>
       <c r="T9">
-        <v>0.2759706855696238</v>
+        <v>0.324257075870838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>13.603287</v>
       </c>
       <c r="O10">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P10">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q10">
         <v>6.773806640369001</v>
       </c>
       <c r="R10">
-        <v>60.96425976332102</v>
+        <v>60.96425976332101</v>
       </c>
       <c r="S10">
-        <v>0.3772764381982818</v>
+        <v>0.4432882224162042</v>
       </c>
       <c r="T10">
-        <v>0.3772764381982819</v>
+        <v>0.4432882224162042</v>
       </c>
     </row>
   </sheetData>
